--- a/CS/CrmDemo/CrmDemo/Resources/Raw/sample_customers_sheeet.xlsx
+++ b/CS/CrmDemo/CrmDemo/Resources/Raw/sample_customers_sheeet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\russkov.alexander\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nevse/work/native-mobile-memoryleaks/xamarin/Maui/Demos/CrmDemo/CrmDemo/Resources/Raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E25BBD8-EFB2-47C4-B6ED-EC8F7E77C7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F53F25-B0E8-994A-BA76-B76B6C00F79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ACBEF49E-51C1-4B81-8911-C7931BF65D27}"/>
+    <workbookView xWindow="41120" yWindow="2820" windowWidth="29040" windowHeight="15720" xr2:uid="{ACBEF49E-51C1-4B81-8911-C7931BF65D27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,13 +65,13 @@
     <t>Pitters</t>
   </si>
   <si>
-    <t>SmithInc</t>
-  </si>
-  <si>
     <t>Sunny Day</t>
   </si>
   <si>
     <t>World of Pi</t>
+  </si>
+  <si>
+    <t>Smith Inc</t>
   </si>
 </sst>
 </file>
@@ -139,9 +139,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -179,7 +179,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -285,7 +285,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -427,7 +427,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -438,17 +438,17 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -467,10 +467,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -478,10 +478,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -489,7 +489,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
